--- a/Отчет Эпизотолог/2021/04.2021 - месячный/04.2021-Форма № 1-Вет все страницы.xlsx
+++ b/Отчет Эпизотолог/2021/04.2021 - месячный/04.2021-Форма № 1-Вет все страницы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boss\Отчет Эпизотолог\2021\04.2021 - месячный\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6449880C-9D17-4247-A233-BFDBC9B07A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE2D7A-CE1D-40DD-A324-BBB2D57BB212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="931" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="931" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-я стр 1-ВЕТ" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="500">
   <si>
     <t>Подають:</t>
   </si>
@@ -1594,9 +1594,6 @@
   </si>
   <si>
     <t>Верджинія</t>
-  </si>
-  <si>
-    <t>Рабистар 070920 до 09.22</t>
   </si>
   <si>
     <t>1)„Дефенсор-3”, біофабрики Зоетіс серія</t>
@@ -2723,29 +2720,23 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2755,6 +2746,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4739,8 +4736,8 @@
   </sheetPr>
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4979,15 +4976,15 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="184" t="str">
+      <c r="G9" s="182" t="str">
         <f>'Акт собаки R'!G9</f>
         <v>Москаленко И.А.</v>
       </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -5032,7 +5029,7 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="195" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B12" s="195"/>
       <c r="C12" s="195"/>
@@ -5086,7 +5083,7 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -5114,7 +5111,7 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5168,7 +5165,7 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
@@ -5251,7 +5248,7 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
@@ -5431,7 +5428,7 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
@@ -5521,7 +5518,7 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
@@ -5541,7 +5538,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R28" s="172"/>
       <c r="S28" s="172"/>
@@ -5610,7 +5607,7 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
@@ -5630,7 +5627,7 @@
       <c r="O31" s="18"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="172" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R31" s="172"/>
       <c r="S31" s="172"/>
@@ -5648,7 +5645,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="172" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G32" s="172"/>
       <c r="H32" s="172"/>
@@ -5663,7 +5660,7 @@
       <c r="O32" s="18"/>
       <c r="P32" s="19"/>
       <c r="R32" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S32" s="19" t="s">
         <v>77</v>
@@ -5699,7 +5696,7 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
@@ -5788,7 +5785,7 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="1"/>
@@ -5808,7 +5805,7 @@
       <c r="O37" s="18"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="172" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R37" s="172"/>
       <c r="S37" s="172"/>
@@ -5826,7 +5823,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="172" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G38" s="172"/>
       <c r="H38" s="172"/>
@@ -5877,7 +5874,7 @@
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="1"/>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="1"/>
@@ -6106,7 +6103,7 @@
       <c r="O47" s="18"/>
       <c r="P47" s="19"/>
       <c r="R47" s="47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S47" s="19" t="s">
         <v>77</v>
@@ -6298,7 +6295,7 @@
     </row>
     <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="1"/>
@@ -6316,7 +6313,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="19"/>
       <c r="Q55" s="172" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R55" s="172"/>
       <c r="S55" s="172"/>
@@ -6367,7 +6364,7 @@
     </row>
     <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="1"/>
@@ -6385,7 +6382,7 @@
       <c r="O58" s="18"/>
       <c r="P58" s="19"/>
       <c r="Q58" s="172" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R58" s="172"/>
       <c r="S58" s="172"/>
@@ -6403,7 +6400,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="191" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G59" s="191"/>
       <c r="H59" s="191"/>
@@ -6436,7 +6433,7 @@
     </row>
     <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="1"/>
@@ -6454,7 +6451,7 @@
       <c r="O61" s="18"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="172" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R61" s="172"/>
       <c r="S61" s="172"/>
@@ -6472,7 +6469,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="191" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G62" s="191"/>
       <c r="H62" s="191"/>
@@ -6563,11 +6560,11 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
-      <c r="F66" s="186">
+      <c r="F66" s="185">
         <f>I13</f>
         <v>42</v>
       </c>
-      <c r="G66" s="186"/>
+      <c r="G66" s="185"/>
       <c r="H66" s="34" t="s">
         <v>80</v>
       </c>
@@ -6579,11 +6576,11 @@
       <c r="N66" s="34"/>
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
-      <c r="Q66" s="186">
+      <c r="Q66" s="185">
         <f>F66</f>
         <v>42</v>
       </c>
-      <c r="R66" s="186"/>
+      <c r="R66" s="185"/>
       <c r="S66" s="34" t="s">
         <v>81</v>
       </c>
@@ -6600,20 +6597,20 @@
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
-      <c r="H67" s="185">
+      <c r="H67" s="184">
         <f>F66*0.5</f>
         <v>21</v>
       </c>
-      <c r="I67" s="185"/>
+      <c r="I67" s="184"/>
       <c r="J67" s="34" t="s">
         <v>83</v>
       </c>
       <c r="L67" s="34"/>
-      <c r="M67" s="186">
+      <c r="M67" s="185">
         <f>F66*0.5</f>
         <v>21</v>
       </c>
-      <c r="N67" s="186"/>
+      <c r="N67" s="185"/>
       <c r="O67" s="34" t="s">
         <v>84</v>
       </c>
@@ -6632,11 +6629,11 @@
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
-      <c r="F68" s="185">
+      <c r="F68" s="184">
         <f>F66</f>
         <v>42</v>
       </c>
-      <c r="G68" s="185"/>
+      <c r="G68" s="184"/>
       <c r="H68" s="34" t="s">
         <v>86</v>
       </c>
@@ -6719,11 +6716,11 @@
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
-      <c r="J71" s="186">
+      <c r="J71" s="185">
         <f>F66</f>
         <v>42</v>
       </c>
-      <c r="K71" s="186"/>
+      <c r="K71" s="185"/>
       <c r="L71" s="34" t="s">
         <v>89</v>
       </c>
@@ -7381,7 +7378,7 @@
       <c r="D8" s="103"/>
       <c r="E8" s="103"/>
       <c r="F8" s="201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G8" s="201"/>
       <c r="H8" s="201"/>
@@ -7391,7 +7388,7 @@
         <v>227</v>
       </c>
       <c r="L8" s="201" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
@@ -7420,7 +7417,7 @@
       <c r="D9" s="103"/>
       <c r="E9" s="103"/>
       <c r="F9" s="201" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
@@ -7430,7 +7427,7 @@
         <v>227</v>
       </c>
       <c r="L9" s="201" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M9" s="201"/>
       <c r="N9" s="201"/>
@@ -7519,13 +7516,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="199" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="199"/>
       <c r="D12" s="199"/>
       <c r="E12" s="199"/>
       <c r="F12" s="199" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G12" s="199"/>
       <c r="H12" s="199"/>
@@ -7668,24 +7665,24 @@
         <v>2</v>
       </c>
       <c r="B17" s="199" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C17" s="199"/>
       <c r="D17" s="199"/>
       <c r="E17" s="199"/>
       <c r="F17" s="199" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G17" s="199"/>
       <c r="H17" s="199"/>
       <c r="I17" s="199" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J17" s="199"/>
       <c r="K17" s="199"/>
       <c r="L17" s="199"/>
       <c r="M17" s="199" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N17" s="199"/>
       <c r="O17" s="199"/>
@@ -7697,7 +7694,7 @@
       <c r="S17" s="198"/>
       <c r="T17" s="198"/>
       <c r="U17" s="199" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V17" s="199"/>
       <c r="W17" s="199"/>
@@ -7817,24 +7814,24 @@
         <v>3</v>
       </c>
       <c r="B22" s="199" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C22" s="199"/>
       <c r="D22" s="199"/>
       <c r="E22" s="199"/>
       <c r="F22" s="199" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G22" s="199"/>
       <c r="H22" s="199"/>
       <c r="I22" s="199" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J22" s="199"/>
       <c r="K22" s="199"/>
       <c r="L22" s="199"/>
       <c r="M22" s="199" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N22" s="199"/>
       <c r="O22" s="199"/>
@@ -7846,7 +7843,7 @@
       <c r="S22" s="198"/>
       <c r="T22" s="198"/>
       <c r="U22" s="199" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V22" s="199"/>
       <c r="W22" s="199"/>
@@ -8053,11 +8050,11 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="185">
+      <c r="G30" s="184">
         <f>'Акт собаки R'!E12</f>
         <v>24</v>
       </c>
-      <c r="H30" s="185"/>
+      <c r="H30" s="184"/>
       <c r="I30" s="34" t="s">
         <v>152</v>
       </c>
@@ -8068,8 +8065,8 @@
       <c r="N30" s="34"/>
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="185"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
       <c r="S30" s="34"/>
       <c r="U30" s="34"/>
       <c r="Y30" s="34"/>
@@ -8084,11 +8081,11 @@
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="185">
+      <c r="H31" s="184">
         <f>'Акт собаки L'!I13</f>
         <v>42</v>
       </c>
-      <c r="I31" s="185"/>
+      <c r="I31" s="184"/>
       <c r="J31" s="34" t="s">
         <v>152</v>
       </c>
@@ -8114,11 +8111,11 @@
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="185">
+      <c r="H32" s="184">
         <f>'Акт собаки L'!I13</f>
         <v>42</v>
       </c>
-      <c r="I32" s="185"/>
+      <c r="I32" s="184"/>
       <c r="J32" s="34" t="s">
         <v>152</v>
       </c>
@@ -8171,11 +8168,11 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
-      <c r="G34" s="185">
+      <c r="G34" s="184">
         <f>'Акт коты R'!E13</f>
         <v>14</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="184"/>
       <c r="I34" s="34" t="s">
         <v>152</v>
       </c>
@@ -8186,8 +8183,8 @@
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
-      <c r="Q34" s="185"/>
-      <c r="R34" s="185"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
       <c r="V34" s="34"/>
@@ -8204,11 +8201,11 @@
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="185">
+      <c r="J35" s="184">
         <f>'Акт коты PCHCh'!E13</f>
         <v>17</v>
       </c>
-      <c r="K35" s="185"/>
+      <c r="K35" s="184"/>
       <c r="L35" s="34" t="s">
         <v>152</v>
       </c>
@@ -8234,11 +8231,11 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
-      <c r="J36" s="185">
+      <c r="J36" s="184">
         <f>J35</f>
         <v>17</v>
       </c>
-      <c r="K36" s="185"/>
+      <c r="K36" s="184"/>
       <c r="L36" s="34" t="s">
         <v>152</v>
       </c>
@@ -8473,7 +8470,7 @@
     </row>
     <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1"/>
@@ -8827,7 +8824,7 @@
     </row>
     <row r="22" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="1"/>
@@ -12047,7 +12044,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G5" s="97" t="s">
         <v>109</v>
@@ -12071,7 +12068,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G6" s="97" t="s">
         <v>109</v>
@@ -12095,7 +12092,7 @@
         <v>351</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G7" s="97" t="s">
         <v>111</v>
@@ -12119,7 +12116,7 @@
         <v>162</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G8" s="97" t="s">
         <v>109</v>
@@ -12143,7 +12140,7 @@
         <v>162</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G9" s="97" t="s">
         <v>111</v>
@@ -12167,7 +12164,7 @@
         <v>162</v>
       </c>
       <c r="F10" s="97" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G10" s="97" t="s">
         <v>111</v>
@@ -12191,7 +12188,7 @@
         <v>162</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G11" s="97" t="s">
         <v>109</v>
@@ -12215,7 +12212,7 @@
         <v>162</v>
       </c>
       <c r="F12" s="120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G12" s="120" t="s">
         <v>111</v>
@@ -12239,7 +12236,7 @@
         <v>203</v>
       </c>
       <c r="F13" s="120" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G13" s="120" t="s">
         <v>111</v>
@@ -12263,7 +12260,7 @@
         <v>162</v>
       </c>
       <c r="F14" s="120" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G14" s="120" t="s">
         <v>109</v>
@@ -12335,7 +12332,7 @@
         <v>203</v>
       </c>
       <c r="F17" s="120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G17" s="120" t="s">
         <v>109</v>
@@ -12359,7 +12356,7 @@
         <v>351</v>
       </c>
       <c r="F18" s="120" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G18" s="120" t="s">
         <v>109</v>
@@ -13875,13 +13872,13 @@
     <mergeCell ref="R26:T26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="S51:W51"/>
     <mergeCell ref="S34:T34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="S46:W46"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="M20:O20"/>
@@ -13980,7 +13977,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="118" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G6" s="97" t="s">
         <v>109</v>
@@ -14004,7 +14001,7 @@
         <v>162</v>
       </c>
       <c r="F7" s="118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G7" s="97" t="s">
         <v>111</v>
@@ -14028,7 +14025,7 @@
         <v>162</v>
       </c>
       <c r="F8" s="118" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G8" s="97" t="s">
         <v>109</v>
@@ -14052,7 +14049,7 @@
         <v>203</v>
       </c>
       <c r="F9" s="118" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G9" s="97" t="s">
         <v>111</v>
@@ -14076,7 +14073,7 @@
         <v>162</v>
       </c>
       <c r="F10" s="118" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G10" s="97" t="s">
         <v>109</v>
@@ -14100,7 +14097,7 @@
         <v>162</v>
       </c>
       <c r="F11" s="118" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G11" s="97" t="s">
         <v>109</v>
@@ -14172,7 +14169,7 @@
         <v>203</v>
       </c>
       <c r="F14" s="118" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G14" s="97" t="s">
         <v>109</v>
@@ -14196,7 +14193,7 @@
         <v>351</v>
       </c>
       <c r="F15" s="118" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G15" s="97" t="s">
         <v>111</v>
@@ -14220,7 +14217,7 @@
         <v>203</v>
       </c>
       <c r="F16" s="118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G16" s="97" t="s">
         <v>111</v>
@@ -14244,7 +14241,7 @@
         <v>203</v>
       </c>
       <c r="F17" s="118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G17" s="97" t="s">
         <v>111</v>
@@ -14268,7 +14265,7 @@
         <v>162</v>
       </c>
       <c r="F18" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G18" s="97" t="s">
         <v>109</v>
@@ -14292,7 +14289,7 @@
         <v>351</v>
       </c>
       <c r="F19" s="118" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G19" s="97" t="s">
         <v>109</v>
@@ -14316,7 +14313,7 @@
         <v>203</v>
       </c>
       <c r="F20" s="118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G20" s="97" t="s">
         <v>109</v>
@@ -14340,7 +14337,7 @@
         <v>203</v>
       </c>
       <c r="F21" s="118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G21" s="120" t="s">
         <v>109</v>
@@ -14364,7 +14361,7 @@
         <v>203</v>
       </c>
       <c r="F22" s="118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G22" s="126" t="s">
         <v>111</v>
@@ -15915,7 +15912,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="96" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G5" s="97" t="s">
         <v>111</v>
@@ -15940,7 +15937,7 @@
         <v>283</v>
       </c>
       <c r="F6" s="96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G6" s="97" t="s">
         <v>109</v>
@@ -15965,7 +15962,7 @@
         <v>176</v>
       </c>
       <c r="F7" s="96" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G7" s="97" t="s">
         <v>111</v>
@@ -15990,7 +15987,7 @@
         <v>281</v>
       </c>
       <c r="F8" s="96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G8" s="97" t="s">
         <v>109</v>
@@ -16015,7 +16012,7 @@
         <v>423</v>
       </c>
       <c r="F9" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G9" s="97" t="s">
         <v>111</v>
@@ -16065,7 +16062,7 @@
         <v>199</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G11" s="97" t="s">
         <v>109</v>
@@ -16090,7 +16087,7 @@
         <v>279</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G12" s="97" t="s">
         <v>109</v>
@@ -16115,7 +16112,7 @@
         <v>283</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G13" s="97" t="s">
         <v>109</v>
@@ -16140,7 +16137,7 @@
         <v>210</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G14" s="97" t="s">
         <v>111</v>
@@ -16165,7 +16162,7 @@
         <v>162</v>
       </c>
       <c r="F15" s="96" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G15" s="97" t="s">
         <v>111</v>
@@ -16215,7 +16212,7 @@
         <v>162</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G17" s="97" t="s">
         <v>111</v>
@@ -16240,7 +16237,7 @@
         <v>282</v>
       </c>
       <c r="F18" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G18" s="97" t="s">
         <v>111</v>
@@ -16264,7 +16261,7 @@
         <v>180</v>
       </c>
       <c r="F19" s="96" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G19" s="97" t="s">
         <v>109</v>
@@ -16288,7 +16285,7 @@
         <v>162</v>
       </c>
       <c r="F20" s="96" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G20" s="97" t="s">
         <v>109</v>
@@ -16312,7 +16309,7 @@
         <v>424</v>
       </c>
       <c r="F21" s="96" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G21" s="97" t="s">
         <v>111</v>
@@ -16360,7 +16357,7 @@
         <v>279</v>
       </c>
       <c r="F23" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G23" s="97" t="s">
         <v>109</v>
@@ -16384,7 +16381,7 @@
         <v>425</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G24" s="97" t="s">
         <v>109</v>
@@ -16408,7 +16405,7 @@
         <v>425</v>
       </c>
       <c r="F25" s="96" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G25" s="97" t="s">
         <v>109</v>
@@ -16432,7 +16429,7 @@
         <v>426</v>
       </c>
       <c r="F26" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26" s="97" t="s">
         <v>111</v>
@@ -16456,7 +16453,7 @@
         <v>162</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G27" s="97" t="s">
         <v>111</v>
@@ -16525,47 +16522,46 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT58"/>
+  <dimension ref="A1:AQ58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="AE1" sqref="AE1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="30" width="3.28515625" customWidth="1"/>
-    <col min="31" max="31" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-    </row>
-    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="124" t="s">
         <v>61</v>
       </c>
@@ -16593,35 +16589,35 @@
       <c r="W2" s="124"/>
       <c r="X2" s="124"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-    </row>
-    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="167">
         <v>20</v>
       </c>
@@ -16656,7 +16652,7 @@
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -16682,35 +16678,35 @@
       <c r="W5" s="33"/>
       <c r="X5" s="33"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="190" t="s">
+      <c r="C6" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="190"/>
-      <c r="P6" s="190"/>
-      <c r="Q6" s="190"/>
-      <c r="R6" s="190"/>
-      <c r="S6" s="190"/>
-      <c r="T6" s="190"/>
-      <c r="U6" s="190"/>
-      <c r="V6" s="190"/>
-      <c r="W6" s="190"/>
-      <c r="X6" s="190"/>
-    </row>
-    <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>125</v>
       </c>
@@ -16738,7 +16734,7 @@
       <c r="W7" s="36"/>
       <c r="X7" s="36"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -16766,7 +16762,7 @@
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -16775,15 +16771,15 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="184" t="str">
+      <c r="G9" s="182" t="str">
         <f>'Списки собак R'!B5</f>
         <v>Москаленко И.А.</v>
       </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="34"/>
@@ -16796,14 +16792,8 @@
       <c r="V9" s="34"/>
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
-      <c r="AE9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>127</v>
       </c>
@@ -16834,7 +16824,7 @@
       <c r="W10" s="34"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>128</v>
       </c>
@@ -16862,13 +16852,13 @@
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="188" t="s">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
       <c r="E12" s="37">
         <f>MAX('Списки собак R'!A5:A43)</f>
         <v>24</v>
@@ -16895,7 +16885,7 @@
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>72</v>
       </c>
@@ -16924,7 +16914,7 @@
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>74</v>
       </c>
@@ -16952,9 +16942,9 @@
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="34"/>
@@ -16968,11 +16958,11 @@
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="180" t="s">
+      <c r="O15" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
       <c r="U15" s="34"/>
@@ -16980,7 +16970,7 @@
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
         <v>123</v>
@@ -16988,12 +16978,12 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
       <c r="J16" s="39"/>
       <c r="K16" s="34" t="s">
         <v>76</v>
@@ -17016,7 +17006,7 @@
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -17042,23 +17032,23 @@
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N18" s="190" t="s">
         <v>430</v>
       </c>
-      <c r="N18" s="187" t="s">
-        <v>431</v>
-      </c>
-      <c r="O18" s="187"/>
-      <c r="P18" s="187"/>
-      <c r="Q18" s="187"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="190"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="34" t="s">
         <v>212</v>
@@ -17066,12 +17056,12 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="182" t="s">
+      <c r="F19" s="189" t="s">
         <v>284</v>
       </c>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
       <c r="J19" s="39"/>
       <c r="K19" s="34" t="s">
         <v>213</v>
@@ -17094,7 +17084,7 @@
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -17120,9 +17110,9 @@
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
@@ -17141,7 +17131,7 @@
       <c r="Q21" s="152"/>
       <c r="R21" s="152"/>
     </row>
-    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="13" t="s">
         <v>122</v>
@@ -17174,15 +17164,15 @@
       <c r="V22" s="1"/>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
-      <c r="AN22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-    </row>
-    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+    </row>
+    <row r="23" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -17208,9 +17198,9 @@
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="34"/>
@@ -17224,11 +17214,11 @@
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="180" t="s">
+      <c r="O24" s="181" t="s">
         <v>204</v>
       </c>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="180"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="34"/>
@@ -17237,7 +17227,7 @@
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="34" t="s">
         <v>123</v>
@@ -17245,12 +17235,12 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="181" t="s">
+      <c r="F25" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
       <c r="J25" s="39"/>
       <c r="K25" s="34" t="s">
         <v>76</v>
@@ -17273,7 +17263,7 @@
       <c r="W25" s="34"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -17299,9 +17289,9 @@
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="34"/>
@@ -17315,11 +17305,11 @@
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="180" t="s">
+      <c r="O27" s="181" t="s">
         <v>197</v>
       </c>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="180"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
       <c r="R27" s="42"/>
       <c r="S27" s="42"/>
       <c r="T27" s="34"/>
@@ -17328,7 +17318,7 @@
       <c r="W27" s="34"/>
       <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34" t="s">
         <v>123</v>
@@ -17336,12 +17326,12 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
-      <c r="F28" s="181" t="s">
+      <c r="F28" s="180" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
       <c r="J28" s="39"/>
       <c r="K28" s="34" t="s">
         <v>76</v>
@@ -17364,7 +17354,7 @@
       <c r="W28" s="34"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -17390,9 +17380,9 @@
       <c r="W29" s="34"/>
       <c r="X29" s="34"/>
     </row>
-    <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="34"/>
@@ -17406,11 +17396,11 @@
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
       <c r="N30" s="41"/>
-      <c r="O30" s="180" t="s">
-        <v>436</v>
-      </c>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
+      <c r="O30" s="181" t="s">
+        <v>435</v>
+      </c>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
       <c r="R30" s="42"/>
       <c r="S30" s="42"/>
       <c r="T30" s="34"/>
@@ -17419,7 +17409,7 @@
       <c r="W30" s="34"/>
       <c r="X30" s="34"/>
     </row>
-    <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="34" t="s">
         <v>123</v>
@@ -17427,12 +17417,12 @@
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="181" t="s">
+      <c r="F31" s="180" t="s">
         <v>272</v>
       </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
       <c r="J31" s="39"/>
       <c r="K31" s="34" t="s">
         <v>76</v>
@@ -17455,7 +17445,7 @@
       <c r="W31" s="34"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U32" s="34"/>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
@@ -17463,7 +17453,7 @@
     </row>
     <row r="33" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="34"/>
@@ -17477,11 +17467,11 @@
       <c r="K33" s="39"/>
       <c r="L33" s="39"/>
       <c r="N33" s="41"/>
-      <c r="O33" s="180" t="s">
+      <c r="O33" s="181" t="s">
         <v>333</v>
       </c>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="180"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
       <c r="U33" s="34"/>
@@ -17497,12 +17487,12 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
-      <c r="F34" s="181" t="s">
+      <c r="F34" s="180" t="s">
         <v>334</v>
       </c>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="181"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
       <c r="J34" s="39"/>
       <c r="K34" s="34" t="s">
         <v>76</v>
@@ -17553,7 +17543,7 @@
     </row>
     <row r="36" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="34"/>
@@ -17567,11 +17557,11 @@
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="180" t="s">
+      <c r="O36" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="34"/>
@@ -17588,12 +17578,12 @@
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
-      <c r="F37" s="181" t="s">
+      <c r="F37" s="180" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
       <c r="J37" s="39"/>
       <c r="K37" s="34" t="s">
         <v>76</v>
@@ -17644,7 +17634,7 @@
     </row>
     <row r="39" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="34"/>
@@ -17658,11 +17648,11 @@
       <c r="K39" s="39"/>
       <c r="L39" s="39"/>
       <c r="N39" s="41"/>
-      <c r="Q39" s="180" t="s">
+      <c r="Q39" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="R39" s="180"/>
-      <c r="S39" s="180"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
       <c r="V39" s="34"/>
       <c r="W39" s="34"/>
     </row>
@@ -17674,12 +17664,12 @@
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="34"/>
-      <c r="F40" s="181" t="s">
-        <v>440</v>
-      </c>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="181"/>
+      <c r="F40" s="180" t="s">
+        <v>439</v>
+      </c>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
       <c r="J40" s="39"/>
       <c r="K40" s="34" t="s">
         <v>76</v>
@@ -17748,11 +17738,11 @@
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="185">
+      <c r="E43" s="184">
         <f>E12</f>
         <v>24</v>
       </c>
-      <c r="F43" s="185"/>
+      <c r="F43" s="184"/>
       <c r="G43" s="34" t="s">
         <v>80</v>
       </c>
@@ -17763,11 +17753,11 @@
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
-      <c r="P43" s="186">
+      <c r="P43" s="185">
         <f>E43</f>
         <v>24</v>
       </c>
-      <c r="Q43" s="186"/>
+      <c r="Q43" s="185"/>
       <c r="R43" s="34" t="s">
         <v>81</v>
       </c>
@@ -17785,21 +17775,21 @@
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
-      <c r="H44" s="185">
+      <c r="H44" s="184">
         <f>E43*0.5</f>
         <v>12</v>
       </c>
-      <c r="I44" s="185"/>
+      <c r="I44" s="184"/>
       <c r="J44" s="34" t="s">
         <v>83</v>
       </c>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
-      <c r="M44" s="185">
+      <c r="M44" s="184">
         <f>E43*0.5</f>
         <v>12</v>
       </c>
-      <c r="N44" s="185"/>
+      <c r="N44" s="184"/>
       <c r="O44" s="34" t="s">
         <v>84</v>
       </c>
@@ -17819,11 +17809,11 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
-      <c r="F45" s="185">
+      <c r="F45" s="184">
         <f>E43</f>
         <v>24</v>
       </c>
-      <c r="G45" s="185"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="34" t="s">
         <v>86</v>
       </c>
@@ -17883,11 +17873,11 @@
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
-      <c r="J47" s="185">
+      <c r="J47" s="184">
         <f>E43</f>
         <v>24</v>
       </c>
-      <c r="K47" s="185"/>
+      <c r="K47" s="184"/>
       <c r="L47" s="34" t="s">
         <v>89</v>
       </c>
@@ -18139,15 +18129,15 @@
       <c r="B58" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="M58" s="184" t="str">
+      <c r="M58" s="182" t="str">
         <f>G9</f>
         <v>Москаленко И.А.</v>
       </c>
-      <c r="N58" s="184"/>
-      <c r="O58" s="184"/>
-      <c r="P58" s="184"/>
-      <c r="Q58" s="184"/>
-      <c r="R58" s="184"/>
+      <c r="N58" s="182"/>
+      <c r="O58" s="182"/>
+      <c r="P58" s="182"/>
+      <c r="Q58" s="182"/>
+      <c r="R58" s="182"/>
       <c r="S58" s="183" t="s">
         <v>96</v>
       </c>
@@ -18163,7 +18153,17 @@
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="C6:X6"/>
     <mergeCell ref="S55:W55"/>
-    <mergeCell ref="M58:R58"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="F37:I37"/>
     <mergeCell ref="S58:W58"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="F45:G45"/>
@@ -18179,21 +18179,11 @@
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="O30:Q30"/>
     <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="F37:I37"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M58:R58"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18207,7 +18197,7 @@
   </sheetPr>
   <dimension ref="A2:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F46"/>
     </sheetView>
   </sheetViews>
@@ -18316,7 +18306,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G5" s="115" t="s">
         <v>111</v>
@@ -18424,7 +18414,7 @@
         <v>162</v>
       </c>
       <c r="F9" s="117" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G9" s="115" t="s">
         <v>111</v>
@@ -18451,7 +18441,7 @@
         <v>282</v>
       </c>
       <c r="F10" s="117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G10" s="115" t="s">
         <v>111</v>
@@ -18478,7 +18468,7 @@
         <v>199</v>
       </c>
       <c r="F11" s="117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G11" s="115" t="s">
         <v>109</v>
@@ -18505,7 +18495,7 @@
         <v>199</v>
       </c>
       <c r="F12" s="117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G12" s="115" t="s">
         <v>109</v>
@@ -18532,7 +18522,7 @@
         <v>162</v>
       </c>
       <c r="F13" s="117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G13" s="115" t="s">
         <v>111</v>
@@ -18559,7 +18549,7 @@
         <v>162</v>
       </c>
       <c r="F14" s="117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G14" s="115" t="s">
         <v>111</v>
@@ -18577,7 +18567,7 @@
         <v>316</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="116" t="s">
         <v>400</v>
@@ -18586,7 +18576,7 @@
         <v>180</v>
       </c>
       <c r="F15" s="117" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G15" s="115" t="s">
         <v>109</v>
@@ -18604,7 +18594,7 @@
         <v>285</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D16" s="116" t="s">
         <v>286</v>
@@ -18631,7 +18621,7 @@
         <v>285</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D17" s="116" t="s">
         <v>286</v>
@@ -18667,7 +18657,7 @@
         <v>162</v>
       </c>
       <c r="F18" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G18" s="115" t="s">
         <v>111</v>
@@ -18694,7 +18684,7 @@
         <v>162</v>
       </c>
       <c r="F19" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G19" s="115" t="s">
         <v>111</v>
@@ -18721,7 +18711,7 @@
         <v>162</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G20" s="115" t="s">
         <v>109</v>
@@ -18748,7 +18738,7 @@
         <v>424</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G21" s="115" t="s">
         <v>111</v>
@@ -18775,7 +18765,7 @@
         <v>423</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G22" s="115" t="s">
         <v>111</v>
@@ -18802,7 +18792,7 @@
         <v>423</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G23" s="115" t="s">
         <v>111</v>
@@ -18829,7 +18819,7 @@
         <v>279</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G24" s="115" t="s">
         <v>109</v>
@@ -18850,7 +18840,7 @@
         <v>288</v>
       </c>
       <c r="D25" s="116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E25" s="116" t="s">
         <v>283</v>
@@ -18877,7 +18867,7 @@
         <v>288</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E26" s="116" t="s">
         <v>283</v>
@@ -18910,7 +18900,7 @@
         <v>279</v>
       </c>
       <c r="F27" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G27" s="115" t="s">
         <v>109</v>
@@ -18964,7 +18954,7 @@
         <v>279</v>
       </c>
       <c r="F29" s="117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G29" s="115" t="s">
         <v>109</v>
@@ -18979,10 +18969,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" s="116" t="s">
         <v>444</v>
-      </c>
-      <c r="C30" s="116" t="s">
-        <v>445</v>
       </c>
       <c r="D30" s="116" t="s">
         <v>323</v>
@@ -19006,10 +18996,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="C31" s="116" t="s">
         <v>444</v>
-      </c>
-      <c r="C31" s="116" t="s">
-        <v>445</v>
       </c>
       <c r="D31" s="116" t="s">
         <v>323</v>
@@ -19033,13 +19023,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="D32" s="116" t="s">
         <v>447</v>
-      </c>
-      <c r="D32" s="116" t="s">
-        <v>448</v>
       </c>
       <c r="E32" s="116" t="s">
         <v>180</v>
@@ -19060,13 +19050,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="C33" s="116" t="s">
+      <c r="D33" s="116" t="s">
         <v>447</v>
-      </c>
-      <c r="D33" s="116" t="s">
-        <v>448</v>
       </c>
       <c r="E33" s="116" t="s">
         <v>180</v>
@@ -19099,7 +19089,7 @@
         <v>281</v>
       </c>
       <c r="F34" s="117" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G34" s="115" t="s">
         <v>109</v>
@@ -19126,7 +19116,7 @@
         <v>283</v>
       </c>
       <c r="F35" s="117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G35" s="115" t="s">
         <v>109</v>
@@ -19153,7 +19143,7 @@
         <v>283</v>
       </c>
       <c r="F36" s="117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G36" s="115" t="s">
         <v>109</v>
@@ -19180,7 +19170,7 @@
         <v>176</v>
       </c>
       <c r="F37" s="117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G37" s="97" t="s">
         <v>111</v>
@@ -19207,7 +19197,7 @@
         <v>425</v>
       </c>
       <c r="F38" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G38" s="97" t="s">
         <v>109</v>
@@ -19234,7 +19224,7 @@
         <v>425</v>
       </c>
       <c r="F39" s="117" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G39" s="97" t="s">
         <v>109</v>
@@ -19261,7 +19251,7 @@
         <v>426</v>
       </c>
       <c r="F40" s="117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G40" s="97" t="s">
         <v>111</v>
@@ -19279,7 +19269,7 @@
         <v>365</v>
       </c>
       <c r="C41" s="116" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D41" s="116" t="s">
         <v>367</v>
@@ -19288,7 +19278,7 @@
         <v>283</v>
       </c>
       <c r="F41" s="117" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G41" s="97" t="s">
         <v>109</v>
@@ -19315,7 +19305,7 @@
         <v>210</v>
       </c>
       <c r="F42" s="117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G42" s="97" t="s">
         <v>111</v>
@@ -19336,7 +19326,7 @@
         <v>288</v>
       </c>
       <c r="D43" s="116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E43" s="116" t="s">
         <v>283</v>
@@ -19363,7 +19353,7 @@
         <v>288</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E44" s="116" t="s">
         <v>283</v>
@@ -19390,7 +19380,7 @@
         <v>288</v>
       </c>
       <c r="D45" s="116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E45" s="116" t="s">
         <v>283</v>
@@ -19417,7 +19407,7 @@
         <v>288</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E46" s="116" t="s">
         <v>283</v>
